--- a/notebook/Results_Unique_W1_1_18_24.xlsx
+++ b/notebook/Results_Unique_W1_1_18_24.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://desertpeak-my.sharepoint.com/personal/apoorva_saxena_sitio_com/Documents/Desktop/Project - Apoorva/Python/Scraping/RRC/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_40E53AF01D41E6DEE54878D6425DCE3A87437275" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4CF1490-0C3E-4160-A8B2-BBF15F786550}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_40E53AF01D41E6DEE54878D6425DCE3A87437275" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4D2E3A0-4B00-4A97-A9B7-DDA9B8E2918A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$183</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2513,7 +2516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2525,6 +2528,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2559,10 +2570,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2571,8 +2583,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2586,6 +2600,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2873,12 +2891,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2962,7 +2981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>12335358</v>
       </c>
@@ -3018,7 +3037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>12335359</v>
       </c>
@@ -3074,7 +3093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12335360</v>
       </c>
@@ -3130,7 +3149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12335361</v>
       </c>
@@ -3186,7 +3205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13544018</v>
       </c>
@@ -3285,7 +3304,7 @@
       <c r="N7" t="s">
         <v>30</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="4" t="s">
         <v>58</v>
       </c>
       <c r="P7" s="3">
@@ -3360,7 +3379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>13544021</v>
       </c>
@@ -3475,7 +3494,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>22742244</v>
       </c>
@@ -3534,7 +3553,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>22742248</v>
       </c>
@@ -3587,7 +3606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>22742333</v>
       </c>
@@ -3640,7 +3659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>22742334</v>
       </c>
@@ -3693,7 +3712,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>25537925</v>
       </c>
@@ -3749,7 +3768,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>25537938</v>
       </c>
@@ -3802,7 +3821,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>25537939</v>
       </c>
@@ -3855,7 +3874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>25537940</v>
       </c>
@@ -3908,7 +3927,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>25537941</v>
       </c>
@@ -3961,7 +3980,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>25537942</v>
       </c>
@@ -4014,7 +4033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>25537943</v>
       </c>
@@ -4067,7 +4086,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>25537944</v>
       </c>
@@ -4120,7 +4139,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>25537945</v>
       </c>
@@ -4173,7 +4192,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>25537954</v>
       </c>
@@ -4229,7 +4248,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>30135307</v>
       </c>
@@ -4285,7 +4304,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>30135312</v>
       </c>
@@ -4341,7 +4360,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>30135528</v>
       </c>
@@ -4397,7 +4416,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>30135529</v>
       </c>
@@ -4453,7 +4472,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>30135530</v>
       </c>
@@ -4509,7 +4528,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>30135531</v>
       </c>
@@ -4565,7 +4584,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30135532</v>
       </c>
@@ -4621,7 +4640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30136612</v>
       </c>
@@ -4674,7 +4693,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>30136635</v>
       </c>
@@ -4730,7 +4749,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>30136636</v>
       </c>
@@ -4786,7 +4805,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>30136666</v>
       </c>
@@ -4839,7 +4858,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>30136678</v>
       </c>
@@ -4895,7 +4914,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>30136686</v>
       </c>
@@ -4951,7 +4970,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>30136687</v>
       </c>
@@ -5007,7 +5026,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>30136692</v>
       </c>
@@ -5063,7 +5082,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>30136694</v>
       </c>
@@ -5116,7 +5135,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>30136695</v>
       </c>
@@ -5169,7 +5188,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>30136696</v>
       </c>
@@ -5222,7 +5241,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>30136697</v>
       </c>
@@ -5275,7 +5294,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>30136698</v>
       </c>
@@ -5328,7 +5347,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>30136699</v>
       </c>
@@ -5384,7 +5403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>30136700</v>
       </c>
@@ -5437,7 +5456,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>30136701</v>
       </c>
@@ -5493,7 +5512,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>30136702</v>
       </c>
@@ -5549,7 +5568,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>30136703</v>
       </c>
@@ -5605,7 +5624,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>30136704</v>
       </c>
@@ -5658,7 +5677,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>30136705</v>
       </c>
@@ -5714,7 +5733,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>30136706</v>
       </c>
@@ -5767,7 +5786,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>30136709</v>
       </c>
@@ -5820,7 +5839,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>30136710</v>
       </c>
@@ -5873,7 +5892,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>30136713</v>
       </c>
@@ -5926,7 +5945,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>30136715</v>
       </c>
@@ -5979,7 +5998,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>30136716</v>
       </c>
@@ -6032,7 +6051,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>30136718</v>
       </c>
@@ -6085,7 +6104,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>30136719</v>
       </c>
@@ -6138,7 +6157,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>30136720</v>
       </c>
@@ -6191,7 +6210,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>30136721</v>
       </c>
@@ -6244,7 +6263,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>31745690</v>
       </c>
@@ -6300,7 +6319,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>31745691</v>
       </c>
@@ -6356,7 +6375,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>31745692</v>
       </c>
@@ -6412,7 +6431,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>31745693</v>
       </c>
@@ -6468,7 +6487,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>31745800</v>
       </c>
@@ -6524,7 +6543,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>31745805</v>
       </c>
@@ -6577,7 +6596,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>31745806</v>
       </c>
@@ -6636,7 +6655,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>31745807</v>
       </c>
@@ -6695,7 +6714,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>31745808</v>
       </c>
@@ -6748,7 +6767,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>31745809</v>
       </c>
@@ -6807,7 +6826,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>31745810</v>
       </c>
@@ -6866,7 +6885,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>31745811</v>
       </c>
@@ -6925,7 +6944,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>31745822</v>
       </c>
@@ -6984,7 +7003,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>32946655</v>
       </c>
@@ -7040,7 +7059,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>32946656</v>
       </c>
@@ -7096,7 +7115,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>32946657</v>
       </c>
@@ -7152,7 +7171,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>32946658</v>
       </c>
@@ -7208,7 +7227,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>32946659</v>
       </c>
@@ -7264,7 +7283,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>32946660</v>
       </c>
@@ -7320,7 +7339,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>32946661</v>
       </c>
@@ -7376,7 +7395,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>32946662</v>
       </c>
@@ -7432,7 +7451,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>32946663</v>
       </c>
@@ -7488,7 +7507,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>32946664</v>
       </c>
@@ -7544,7 +7563,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>32946665</v>
       </c>
@@ -7600,7 +7619,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>32946666</v>
       </c>
@@ -7656,7 +7675,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>32946681</v>
       </c>
@@ -7712,7 +7731,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>32946682</v>
       </c>
@@ -7768,7 +7787,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>32946688</v>
       </c>
@@ -7824,7 +7843,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>32946689</v>
       </c>
@@ -7880,7 +7899,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>32946690</v>
       </c>
@@ -7936,7 +7955,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>32946691</v>
       </c>
@@ -7992,7 +8011,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>32946692</v>
       </c>
@@ -8048,7 +8067,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>32946693</v>
       </c>
@@ -8104,7 +8123,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>32946694</v>
       </c>
@@ -8160,7 +8179,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>32946695</v>
       </c>
@@ -8216,7 +8235,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>32946696</v>
       </c>
@@ -8272,7 +8291,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>32946698</v>
       </c>
@@ -8328,7 +8347,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>32946699</v>
       </c>
@@ -8384,7 +8403,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>32946706</v>
       </c>
@@ -8440,7 +8459,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>32946707</v>
       </c>
@@ -8496,7 +8515,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>32946708</v>
       </c>
@@ -8552,7 +8571,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>32946709</v>
       </c>
@@ -8608,7 +8627,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>32946710</v>
       </c>
@@ -8664,7 +8683,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>32946711</v>
       </c>
@@ -8720,7 +8739,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>32946712</v>
       </c>
@@ -8776,7 +8795,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>32946713</v>
       </c>
@@ -8832,7 +8851,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>32946714</v>
       </c>
@@ -8888,7 +8907,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>32946715</v>
       </c>
@@ -8944,7 +8963,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>32946716</v>
       </c>
@@ -9000,7 +9019,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>32946717</v>
       </c>
@@ -9056,7 +9075,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>32946718</v>
       </c>
@@ -9112,7 +9131,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>32946719</v>
       </c>
@@ -9168,7 +9187,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>32946720</v>
       </c>
@@ -9224,7 +9243,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>32946721</v>
       </c>
@@ -9280,7 +9299,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>32946724</v>
       </c>
@@ -9336,7 +9355,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>32946725</v>
       </c>
@@ -9389,7 +9408,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>32946740</v>
       </c>
@@ -9504,7 +9523,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>38341577</v>
       </c>
@@ -9560,7 +9579,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>38341578</v>
       </c>
@@ -9616,7 +9635,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>38341579</v>
       </c>
@@ -9672,7 +9691,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>38341581</v>
       </c>
@@ -9728,7 +9747,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>38341582</v>
       </c>
@@ -9784,7 +9803,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>38940808</v>
       </c>
@@ -9840,7 +9859,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>38940910</v>
       </c>
@@ -9896,7 +9915,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>38940933</v>
       </c>
@@ -9952,7 +9971,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>38940943</v>
       </c>
@@ -10008,7 +10027,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>38940944</v>
       </c>
@@ -10064,7 +10083,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>38940945</v>
       </c>
@@ -10120,7 +10139,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>38940967</v>
       </c>
@@ -10173,7 +10192,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>38940968</v>
       </c>
@@ -10226,7 +10245,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>38940969</v>
       </c>
@@ -10279,7 +10298,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>38940970</v>
       </c>
@@ -10332,7 +10351,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>38940976</v>
       </c>
@@ -10385,7 +10404,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>38940977</v>
       </c>
@@ -10438,7 +10457,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>38940978</v>
       </c>
@@ -10491,7 +10510,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>38940979</v>
       </c>
@@ -10544,7 +10563,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>38940980</v>
       </c>
@@ -10600,7 +10619,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>38940981</v>
       </c>
@@ -10653,7 +10672,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>38940982</v>
       </c>
@@ -10709,7 +10728,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>38940983</v>
       </c>
@@ -10762,7 +10781,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>38940984</v>
       </c>
@@ -10818,7 +10837,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>38940985</v>
       </c>
@@ -10992,7 +11011,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>46142609</v>
       </c>
@@ -11048,7 +11067,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>46142610</v>
       </c>
@@ -11104,7 +11123,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>46142611</v>
       </c>
@@ -11160,7 +11179,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>46142645</v>
       </c>
@@ -11275,7 +11294,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>46142647</v>
       </c>
@@ -11331,7 +11350,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>46142648</v>
       </c>
@@ -11446,7 +11465,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>46142650</v>
       </c>
@@ -11502,7 +11521,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>46142651</v>
       </c>
@@ -11617,7 +11636,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>46142653</v>
       </c>
@@ -11673,7 +11692,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>46142654</v>
       </c>
@@ -11847,7 +11866,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>46142657</v>
       </c>
@@ -12021,7 +12040,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>46142660</v>
       </c>
@@ -12195,7 +12214,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>46142663</v>
       </c>
@@ -12369,7 +12388,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>46142666</v>
       </c>
@@ -12543,7 +12562,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>46142669</v>
       </c>
@@ -12717,7 +12736,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>47538705</v>
       </c>
@@ -12770,7 +12789,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>47538719</v>
       </c>
@@ -12826,7 +12845,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>47538720</v>
       </c>
@@ -12882,7 +12901,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>47538721</v>
       </c>
@@ -12938,7 +12957,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>47538722</v>
       </c>
@@ -12994,7 +13013,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>47538723</v>
       </c>
@@ -13050,7 +13069,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>47538724</v>
       </c>
@@ -13107,6 +13126,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S183" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="Allocation, Stacked Lateral"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="O7" r:id="rId1" display="https://webapps2.rrc.texas.gov/EWA/drillingPermitDetailAction.do?methodToCall=searchByUniversalDocNo&amp;universalDocNo=496799395&amp;rrcActionMan=H4sIAAAAAAAAAL1Qu27DMAz8mnQU9HLQDhyMop37CJrByKDYgiJAtgxK7gPQx5d2USB1OmcSeTwdj1cE5yCL4ALEDWJbt9nH4aXFruEHWPAPezTjmCSjMcv20yTm4vtG1VorIkjYyMeHfU2lmssOfQh-cE8We5_T82Tx60eVdZFIGnqbT7HbxXsTAgEVoM0TDrv4ag22J4JugV-YadIyrdElNho0_ZsJk108kgehKq25uJu7Co7W-SHtfZ7FSO1PL-SqP-ev1oqrZZB-b9_CaJzFsxv_DUQcmjVv9gqiUBi8KCo08FLRuyXg8vdV4vwG9NOPT18CAAA" xr:uid="{37117A8D-90EE-4102-BD91-AAC13E39BE9F}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>